--- a/hiqu/HR/Performance Evaluation/December 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/Dev/Asad Mahmood.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FFD4F5-7E52-4BFD-BD8E-30BA5DB972F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40467C-9656-4FB6-9E19-2799DFE11AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="6" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="7" r:id="rId4"/>
-    <sheet name="October 2024" sheetId="4" r:id="rId5"/>
-    <sheet name="September 2024" sheetId="1" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="8" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="7" r:id="rId5"/>
+    <sheet name="October 2024" sheetId="4" r:id="rId6"/>
+    <sheet name="September 2024" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>Employee Name</t>
   </si>
@@ -418,25 +419,13 @@
     <t xml:space="preserve">APWORKS PHASE2                  </t>
   </si>
   <si>
-    <t>AI Usage</t>
-  </si>
-  <si>
-    <t>Backend Development</t>
-  </si>
-  <si>
-    <t>Review Spec</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Testing</t>
+    <t>PDF based broadcast invoices - Model List</t>
+  </si>
+  <si>
+    <t>PDF based broadcast invoices - Import / Export lines</t>
+  </si>
+  <si>
+    <t>Internal Meetings</t>
   </si>
 </sst>
 </file>
@@ -448,7 +437,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,12 +562,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -624,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -815,15 +798,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -835,7 +809,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -987,9 +961,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -999,9 +970,6 @@
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,9 +1020,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1074,9 +1039,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="4" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1100,6 +1062,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1190,22 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1215,18 +1170,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{2701FF39-7653-422A-8590-37E5DFF3CAE0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3263,18 +3207,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="106"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
@@ -3282,11 +3226,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3294,11 +3238,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3306,11 +3250,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3318,11 +3262,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3330,11 +3274,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3342,12 +3286,12 @@
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="104">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.2136986301369863</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+        <v>1.3287671232876712</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -3355,11 +3299,11 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3654,13 +3598,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
@@ -3677,12 +3621,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -3702,13 +3646,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3815,13 +3759,13 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -3911,13 +3855,13 @@
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
@@ -4388,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E13AAFB-7E02-4623-8BE3-19E3C5A62E53}">
-  <dimension ref="B2:Z38"/>
+  <dimension ref="B2:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,147 +4357,123 @@
     <col min="19" max="19" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="1.7109375" style="5" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" style="5" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="5"/>
-    <col min="26" max="26" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="115" t="s">
+    <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-    </row>
-    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="str">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="32" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="120" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="42"/>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="124" t="s">
+      <c r="Q6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
       <c r="U6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
@@ -4574,8 +4494,8 @@
       <c r="I7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="122"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="42"/>
       <c r="M7" s="34" t="s">
         <v>13</v>
@@ -4583,7 +4503,7 @@
       <c r="N7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="100" t="s">
+      <c r="O7" s="96" t="s">
         <v>110</v>
       </c>
       <c r="P7" s="42"/>
@@ -4599,20 +4519,8 @@
       <c r="U7" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
@@ -4628,7 +4536,7 @@
       <c r="L8" s="42"/>
       <c r="M8" s="41"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="103">
+      <c r="O8" s="99">
         <f>IF(M8&gt;0,M8-N8,0)</f>
         <v>0</v>
       </c>
@@ -4641,20 +4549,15 @@
         <f t="shared" ref="U8:U17" si="0">D8+E8+F8+G8+H8+I8+J8+K8+N8+R8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4665,8 +4568,8 @@
       <c r="L9" s="42"/>
       <c r="M9" s="41"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="103">
-        <f t="shared" ref="O9:O36" si="1">IF(M9&gt;0,M9-N9,0)</f>
+      <c r="O9" s="99">
+        <f t="shared" ref="O9:O38" si="1">IF(M9&gt;0,M9-N9,0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="42"/>
@@ -4676,15 +4579,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="22">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
@@ -4700,7 +4598,7 @@
       <c r="L10" s="42"/>
       <c r="M10" s="41"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="103">
+      <c r="O10" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4713,13 +4611,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>90</v>
@@ -4735,28 +4628,23 @@
       <c r="L11" s="42"/>
       <c r="M11" s="41"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="103">
+      <c r="O11" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="42"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="2"/>
       <c r="U11" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
@@ -4772,7 +4660,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="41"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="103">
+      <c r="O12" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4785,13 +4673,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>97</v>
@@ -4813,7 +4696,7 @@
       <c r="N13" s="2">
         <v>35</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="99">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
@@ -4828,13 +4711,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>88</v>
@@ -4856,7 +4734,7 @@
       <c r="N14" s="2">
         <v>89</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="99">
         <f t="shared" si="1"/>
         <v>-45</v>
       </c>
@@ -4871,13 +4749,8 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -4895,7 +4768,7 @@
       <c r="L15" s="42"/>
       <c r="M15" s="41"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="103">
+      <c r="O15" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4908,13 +4781,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>98</v>
@@ -4934,7 +4802,7 @@
       <c r="N16" s="2">
         <v>2</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="99">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -4947,13 +4815,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
         <v>99</v>
@@ -4975,7 +4838,7 @@
       <c r="N17" s="2">
         <v>20</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="99">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -4990,13 +4853,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>116</v>
@@ -5006,7 +4864,9 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <v>3</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="40"/>
       <c r="L18" s="42"/>
@@ -5016,7 +4876,7 @@
       <c r="N18" s="2">
         <v>31</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="99">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -5029,15 +4889,10 @@
       <c r="T18" s="26"/>
       <c r="U18" s="22">
         <f>D18+E18+F18+G18+H18+I18+J18+K18+N18+R18</f>
-        <v>37</v>
-      </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>114</v>
       </c>
@@ -5053,11 +4908,11 @@
       <c r="L19" s="42"/>
       <c r="M19" s="41"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="103">
+      <c r="O19" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="101">
+      <c r="P19" s="97">
         <v>49</v>
       </c>
       <c r="Q19" s="41"/>
@@ -5068,31 +4923,32 @@
         <f>D19+E19+F19+G19+H19+I19+J19+K19+N19+R19</f>
         <v>0</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
       <c r="K20" s="40"/>
       <c r="L20" s="42"/>
       <c r="M20" s="41"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="103">
+      <c r="O20" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5102,16 +4958,11 @@
       <c r="S20" s="6"/>
       <c r="T20" s="2"/>
       <c r="U20" s="22">
-        <f t="shared" ref="U20:U35" si="2">D20+E20+F20+G20+H20+I20+J20+K20+N20+R20</f>
-        <v>6</v>
-      </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U20:U37" si="2">D20+E20+F20+G20+H20+I20+J20+K20+N20+R20</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>117</v>
@@ -5131,31 +4982,28 @@
         <v>40</v>
       </c>
       <c r="N21" s="2">
-        <v>12</v>
-      </c>
-      <c r="O21" s="103">
+        <v>52</v>
+      </c>
+      <c r="O21" s="99">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>-12</v>
       </c>
       <c r="P21" s="42"/>
       <c r="Q21" s="41"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>2</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="2"/>
       <c r="U21" s="22">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -5166,121 +5014,96 @@
       <c r="J22" s="2"/>
       <c r="K22" s="40"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="41">
-        <v>8</v>
-      </c>
+      <c r="M22" s="41"/>
       <c r="N22" s="2">
-        <v>8</v>
-      </c>
-      <c r="O22" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O22" s="99"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="41"/>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
+      <c r="R22" s="2"/>
       <c r="S22" s="6"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="22">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="40"/>
       <c r="L23" s="42"/>
       <c r="M23" s="41">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N23" s="2">
         <v>8</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="99">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="26"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="22">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="40"/>
       <c r="L24" s="42"/>
       <c r="M24" s="41">
         <v>12</v>
       </c>
       <c r="N24" s="2">
-        <v>11</v>
-      </c>
-      <c r="O24" s="103">
+        <v>8</v>
+      </c>
+      <c r="O24" s="99">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P24" s="42"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
       <c r="S24" s="9"/>
       <c r="T24" s="26"/>
       <c r="U24" s="22">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5288,38 +5111,35 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
       <c r="K25" s="40"/>
       <c r="L25" s="42"/>
       <c r="M25" s="41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N25" s="2">
-        <v>3</v>
-      </c>
-      <c r="O25" s="103">
+        <v>11</v>
+      </c>
+      <c r="O25" s="99">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P25" s="42"/>
       <c r="Q25" s="41"/>
-      <c r="R25" s="39"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5334,32 +5154,27 @@
         <v>8</v>
       </c>
       <c r="N26" s="2">
-        <v>8</v>
-      </c>
-      <c r="O26" s="103">
+        <v>3</v>
+      </c>
+      <c r="O26" s="99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="41"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="9"/>
       <c r="T26" s="2"/>
       <c r="U26" s="22">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -5369,9 +5184,13 @@
       <c r="J27" s="2"/>
       <c r="K27" s="40"/>
       <c r="L27" s="42"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="103">
+      <c r="M27" s="41">
+        <v>8</v>
+      </c>
+      <c r="N27" s="2">
+        <v>8</v>
+      </c>
+      <c r="O27" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5382,18 +5201,13 @@
       <c r="T27" s="2"/>
       <c r="U27" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -5405,30 +5219,24 @@
       <c r="K28" s="40"/>
       <c r="L28" s="42"/>
       <c r="M28" s="41"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N28" s="2">
+        <v>6</v>
+      </c>
+      <c r="O28" s="99"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="41"/>
-      <c r="R28" s="2">
-        <v>40</v>
-      </c>
+      <c r="R28" s="2"/>
       <c r="S28" s="9"/>
       <c r="T28" s="2"/>
       <c r="U28" s="22">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -5441,7 +5249,7 @@
       <c r="L29" s="42"/>
       <c r="M29" s="41"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="103">
+      <c r="O29" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5454,15 +5262,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5474,28 +5279,27 @@
       <c r="L30" s="42"/>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="103">
+      <c r="O30" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="41"/>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>124</v>
+      </c>
       <c r="S30" s="9"/>
       <c r="T30" s="2"/>
       <c r="U30" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5507,30 +5311,31 @@
       <c r="L31" s="42"/>
       <c r="M31" s="41"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="103">
+      <c r="O31" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P31" s="42"/>
       <c r="Q31" s="41"/>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>4</v>
+      </c>
       <c r="S31" s="9"/>
       <c r="T31" s="2"/>
       <c r="U31" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -5540,7 +5345,7 @@
       <c r="L32" s="42"/>
       <c r="M32" s="41"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="103">
+      <c r="O32" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5551,15 +5356,10 @@
       <c r="T32" s="2"/>
       <c r="U32" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -5573,7 +5373,7 @@
       <c r="L33" s="42"/>
       <c r="M33" s="41"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="103">
+      <c r="O33" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5586,13 +5386,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -5606,7 +5401,7 @@
       <c r="L34" s="42"/>
       <c r="M34" s="41"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="103">
+      <c r="O34" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5619,13 +5414,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -5639,7 +5429,7 @@
       <c r="L35" s="42"/>
       <c r="M35" s="41"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="103">
+      <c r="O35" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5652,13 +5442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -5672,1254 +5457,1996 @@
       <c r="L36" s="42"/>
       <c r="M36" s="41"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="103">
+      <c r="O36" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P36" s="42"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+      <c r="U36" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="102">
-        <f t="shared" ref="D37:K37" si="3">SUM(D8:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="102">
+      <c r="C39" s="10"/>
+      <c r="D39" s="98">
+        <f t="shared" ref="D39:K39" si="3">SUM(D8:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="98">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F37" s="102">
+        <v>68</v>
+      </c>
+      <c r="F39" s="98">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="102">
+        <v>3</v>
+      </c>
+      <c r="G39" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H37" s="102">
+      <c r="H39" s="98">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I37" s="102">
+        <v>62</v>
+      </c>
+      <c r="I39" s="98">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="102">
+        <v>13</v>
+      </c>
+      <c r="J39" s="98">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="102">
+        <v>3</v>
+      </c>
+      <c r="K39" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="102">
-        <f>SUM(M8:M36)</f>
+      <c r="L39" s="43"/>
+      <c r="M39" s="98">
+        <f>SUM(M8:M38)</f>
         <v>248</v>
       </c>
-      <c r="N37" s="102">
-        <f>SUM(N8:N36)</f>
-        <v>227</v>
-      </c>
-      <c r="O37" s="102">
-        <f>SUM(O8:O36)</f>
-        <v>21</v>
-      </c>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="102">
-        <f>SUM(Q8:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="102">
-        <f>SUM(R8:R36)</f>
-        <v>114</v>
-      </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="102">
-        <f>SUM(U8:U36)</f>
-        <v>381</v>
-      </c>
-      <c r="V37" s="11"/>
-      <c r="W37" s="102">
-        <f>SUM(W8:W36)</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="102">
-        <f>SUM(X8:X36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="102">
-        <f>SUM(Y8:Y36)</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="102">
-        <f>SUM(Z8:Z36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="N39" s="98">
+        <f>SUM(N8:N38)</f>
+        <v>277</v>
+      </c>
+      <c r="O39" s="98">
+        <f>SUM(O8:O38)</f>
+        <v>-19</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="98">
+        <f>SUM(Q8:Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="98">
+        <f>SUM(R8:R38)</f>
+        <v>218</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="98">
+        <f>SUM(U8:U38)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="B4:U4"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="W6:Z6"/>
   </mergeCells>
-  <conditionalFormatting sqref="W18:W22">
-    <cfRule type="expression" priority="1">
-      <formula>W18/$Z18</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D64FF-5C57-4E32-A624-1C7A9E15FF92}">
-  <dimension ref="B2:AB28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C9B839-8B9D-4371-8DE5-1EA555277B43}">
+  <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" style="140" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="2.140625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="5"/>
-    <col min="20" max="20" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" style="5" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="99" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="115" t="s">
+    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-    </row>
-    <row r="3" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-    </row>
-    <row r="6" spans="2:28" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+    </row>
+    <row r="6" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57" t="s">
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="J6" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="128" t="s">
+      <c r="K6" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="130" t="s">
+      <c r="L6" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="127" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="132" t="s">
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61" t="s">
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="60"/>
-    </row>
-    <row r="7" spans="2:28" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="139" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="65" t="s">
+    </row>
+    <row r="7" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="G7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="H7" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="I7" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="J7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="56" t="s">
+      <c r="K7" s="128"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="56" t="s">
         <v>13</v>
       </c>
+      <c r="O7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>16</v>
+      </c>
       <c r="T7" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="60"/>
-      <c r="W7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="67" t="s">
+      <c r="U7" s="60"/>
+      <c r="V7" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="AB7" s="60"/>
-    </row>
-    <row r="8" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="58"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="69"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="74">
-        <f>I8+J8+K8+L8+M8+N8+O8+P8+Q8+T8+X8</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="60"/>
-    </row>
-    <row r="9" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="60"/>
+      <c r="V8" s="72">
+        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73">
+        <v>42</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="75"/>
-      <c r="J9" s="75">
-        <v>13</v>
-      </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="58"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="76">
+        <f>IF(N9&gt;0,N9-O9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="69"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="78">
-        <f>IF(S9&gt;0,S9-T9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="79">
-        <f t="shared" ref="Y9" si="0">IF(W9=0,0,(X9-W9)/W9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="74">
-        <f t="shared" ref="AA9:AA26" si="1">I9+J9+K9+L9+M9+N9+O9+P9+Q9+T9+X9</f>
-        <v>13</v>
-      </c>
-      <c r="AB9" s="60"/>
-    </row>
-    <row r="10" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="77">
+        <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="V9" s="72">
+        <f t="shared" ref="V9:V26" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="58"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="76">
+        <f t="shared" ref="P10:P26" si="2">IF(N10&gt;0,N10-O10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="69"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="78">
-        <f t="shared" ref="U10:U26" si="2">IF(S10&gt;0,S10-T10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="60"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="74">
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="60"/>
-    </row>
-    <row r="11" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="69"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="78">
+      <c r="P11" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="74">
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69">
+        <v>14</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AB11" s="71"/>
-    </row>
-    <row r="12" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="69"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="58"/>
+      <c r="P12" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="74">
+      <c r="T12" s="77"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="71"/>
-    </row>
-    <row r="13" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="69"/>
+        <v>80</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69">
+        <v>5</v>
+      </c>
+      <c r="F13" s="69">
+        <v>3</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="67">
+        <v>51</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="69">
+        <v>2</v>
+      </c>
+      <c r="L13" s="79"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="69"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="69">
-        <v>30</v>
-      </c>
-      <c r="T13" s="71">
-        <v>4</v>
-      </c>
-      <c r="U13" s="78">
+      <c r="P13" s="76">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="79">
-        <f t="shared" ref="Y13" si="3">IF(W13=0,0,(X13-W13)/W13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="77">
+        <f t="shared" ref="T13" si="3">IF(R13=0,0,(S13-R13)/R13)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="60"/>
+      <c r="V13" s="72">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AB13" s="71"/>
-    </row>
-    <row r="14" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="84">
-        <v>5</v>
-      </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="78">
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="80">
+        <v>40</v>
+      </c>
+      <c r="P14" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V14" s="82"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="74">
+      <c r="Q14" s="80"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="72">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AB14" s="82"/>
-    </row>
-    <row r="15" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
       <c r="L15" s="83"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84">
-        <v>3</v>
-      </c>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="78">
+      <c r="M15" s="58"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="80">
+        <v>4</v>
+      </c>
+      <c r="P15" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V15" s="60"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="74">
+      <c r="Q15" s="60"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="72">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AB15" s="60"/>
-    </row>
-    <row r="16" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84">
-        <v>3</v>
-      </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="82">
-        <v>31</v>
-      </c>
-      <c r="U16" s="78">
+      <c r="L16" s="83"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="80">
+        <v>6</v>
+      </c>
+      <c r="P16" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V16" s="60"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71">
+      <c r="Q16" s="60"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="72">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="74">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB16" s="60"/>
-    </row>
-    <row r="17" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="17" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="78">
+      <c r="L17" s="83"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V17" s="60"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="74">
+      <c r="Q17" s="60"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="60"/>
-    </row>
-    <row r="18" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="82"/>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84">
-        <v>6</v>
-      </c>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="78">
+      <c r="L18" s="83"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V18" s="60"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="74">
+      <c r="Q18" s="60"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="72">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AB18" s="60"/>
-    </row>
-    <row r="19" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="82"/>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84">
-        <v>2</v>
-      </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="82">
-        <v>12</v>
-      </c>
-      <c r="U19" s="78">
+      <c r="L19" s="83"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V19" s="60"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="74">
+      <c r="Q19" s="60"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="72">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AB19" s="60"/>
-    </row>
-    <row r="20" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84">
-        <v>1</v>
-      </c>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="82">
-        <v>8</v>
-      </c>
-      <c r="U20" s="78">
+      <c r="L20" s="83"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="74">
+      <c r="Q20" s="60"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="72">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AB20" s="60"/>
-    </row>
-    <row r="21" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84">
-        <v>1</v>
-      </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="82">
-        <v>8</v>
-      </c>
-      <c r="U21" s="78">
+      <c r="L21" s="83"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V21" s="60"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="74">
+      <c r="Q21" s="60"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="72">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AB21" s="60"/>
-    </row>
-    <row r="22" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="82"/>
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="82">
-        <v>11</v>
-      </c>
-      <c r="U22" s="78">
+      <c r="L22" s="83"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V22" s="60"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="74">
+      <c r="Q22" s="60"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="72">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AB22" s="60"/>
-    </row>
-    <row r="23" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="82">
-        <v>3</v>
-      </c>
-      <c r="U23" s="78">
+      <c r="L23" s="83"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V23" s="60"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="74">
+      <c r="Q23" s="60"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="72">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AB23" s="60"/>
-    </row>
-    <row r="24" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="82">
-        <v>8</v>
-      </c>
-      <c r="U24" s="78">
+      <c r="L24" s="83"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V24" s="60"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="74">
+      <c r="Q24" s="60"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="72">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AB24" s="60"/>
-    </row>
-    <row r="25" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="78">
+      <c r="L25" s="83"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V25" s="60"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="74">
+      <c r="Q25" s="60"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="60"/>
-    </row>
-    <row r="26" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
+    </row>
+    <row r="26" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="78">
+      <c r="O26" s="80"/>
+      <c r="P26" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V26" s="82"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="74">
+      <c r="Q26" s="80"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="86"/>
-    </row>
-    <row r="27" spans="2:28" s="62" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+    </row>
+    <row r="27" spans="2:22" s="61" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="89">
-        <f t="shared" ref="I27:Q27" si="4">SUM(I8:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="89">
+      <c r="C27" s="85"/>
+      <c r="D27" s="86">
+        <f t="shared" ref="D27:L27" si="4">SUM(D8:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="86">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="K27" s="89">
+        <v>47</v>
+      </c>
+      <c r="F27" s="86">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="89">
+        <v>3</v>
+      </c>
+      <c r="G27" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="89">
+      <c r="H27" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N27" s="89">
+      <c r="I27" s="86">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O27" s="89">
+        <v>51</v>
+      </c>
+      <c r="J27" s="86">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="86">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="88">
+        <f>SUM(N8:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="86">
+        <f>SUM(O8:O26)</f>
+        <v>50</v>
       </c>
       <c r="P27" s="89">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="58"/>
-      <c r="S27" s="91">
+        <f>SUM(P8:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="90">
+        <f>SUM(R8:R26)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="90">
         <f>SUM(S8:S26)</f>
-        <v>30</v>
-      </c>
-      <c r="T27" s="89">
+        <v>14</v>
+      </c>
+      <c r="T27" s="90">
         <f>SUM(T8:T26)</f>
-        <v>85</v>
-      </c>
-      <c r="U27" s="92">
-        <f>SUM(U8:U26)</f>
-        <v>26</v>
-      </c>
-      <c r="V27" s="89"/>
-      <c r="W27" s="93">
-        <f>SUM(W8:W26)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="93">
-        <f>SUM(X8:X26)</f>
-        <v>43</v>
-      </c>
-      <c r="Y27" s="93">
-        <f>SUM(Y8:Y26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="94">
-        <f>SUM(AA8:AA26)</f>
-        <v>163</v>
-      </c>
-      <c r="AB27" s="86"/>
-    </row>
-    <row r="28" spans="2:28" s="95" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="100"/>
+      <c r="V27" s="102">
+        <f>SUM(V8:V26)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" s="91" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:AB2"/>
-    <mergeCell ref="B3:AB3"/>
-    <mergeCell ref="B4:AB4"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="E6:G6"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:H4 D7:H1048576 D5:D6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D64FF-5C57-4E32-A624-1C7A9E15FF92}">
+  <dimension ref="B2:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="95" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+    </row>
+    <row r="6" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="128"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="60"/>
+      <c r="V7" s="101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="72">
+        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73">
+        <v>13</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="76">
+        <f>IF(N9&gt;0,N9-O9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="77">
+        <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="V9" s="72">
+        <f t="shared" ref="V9:V26" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="76">
+        <f t="shared" ref="P10:P26" si="2">IF(N10&gt;0,N10-O10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69">
+        <v>4</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="72">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="67">
+        <v>30</v>
+      </c>
+      <c r="O13" s="69">
+        <v>4</v>
+      </c>
+      <c r="P13" s="76">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69">
+        <v>12</v>
+      </c>
+      <c r="T13" s="77">
+        <f t="shared" ref="T13" si="3">IF(R13=0,0,(S13-R13)/R13)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="60"/>
+      <c r="V13" s="72">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="82">
+        <v>5</v>
+      </c>
+      <c r="J14" s="82"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82">
+        <v>3</v>
+      </c>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69">
+        <v>20</v>
+      </c>
+      <c r="T15" s="77"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="72">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82">
+        <v>3</v>
+      </c>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="80">
+        <v>31</v>
+      </c>
+      <c r="P16" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69">
+        <v>6</v>
+      </c>
+      <c r="T16" s="77"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="72">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82">
+        <v>6</v>
+      </c>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="72">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82">
+        <v>2</v>
+      </c>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="80">
+        <v>12</v>
+      </c>
+      <c r="P19" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="72">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82">
+        <v>1</v>
+      </c>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="80">
+        <v>8</v>
+      </c>
+      <c r="P20" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="72">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82">
+        <v>1</v>
+      </c>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="80">
+        <v>8</v>
+      </c>
+      <c r="P21" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69">
+        <v>1</v>
+      </c>
+      <c r="T21" s="77"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="72">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82">
+        <v>1</v>
+      </c>
+      <c r="L22" s="83"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="80">
+        <v>11</v>
+      </c>
+      <c r="P22" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="72">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="80">
+        <v>3</v>
+      </c>
+      <c r="P23" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="80">
+        <v>8</v>
+      </c>
+      <c r="P24" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" s="61" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86">
+        <f t="shared" ref="D27:L27" si="4">SUM(D8:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="86">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F27" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="86">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J27" s="86">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="86">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="88">
+        <f>SUM(N8:N26)</f>
+        <v>30</v>
+      </c>
+      <c r="O27" s="86">
+        <f>SUM(O8:O26)</f>
+        <v>85</v>
+      </c>
+      <c r="P27" s="89">
+        <f>SUM(P8:P26)</f>
+        <v>26</v>
+      </c>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="90">
+        <f>SUM(R8:R26)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="90">
+        <f>SUM(S8:S26)</f>
+        <v>43</v>
+      </c>
+      <c r="T27" s="90">
+        <f>SUM(T8:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="100"/>
+      <c r="V27" s="102">
+        <f>SUM(V8:V26)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" s="91" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C7F14C-793E-47E5-A152-7F357B90EBD1}">
   <dimension ref="B2:Z21"/>
   <sheetViews>
@@ -6953,92 +7480,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="115" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -7047,41 +7574,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="121"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="124"/>
-      <c r="P6" s="119" t="s">
+      <c r="M6" s="122"/>
+      <c r="N6" s="123"/>
+      <c r="P6" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="121" t="s">
+      <c r="W6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -7101,8 +7628,8 @@
       <c r="H7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="133"/>
-      <c r="J7" s="120"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="119"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
@@ -7627,7 +8154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Z15"/>
   <sheetViews>
@@ -7661,92 +8188,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="115" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -7755,41 +8282,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="124"/>
-      <c r="P6" s="119" t="s">
+      <c r="M6" s="122"/>
+      <c r="N6" s="123"/>
+      <c r="P6" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="121" t="s">
+      <c r="W6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -7809,8 +8336,8 @@
       <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
